--- a/biology/Zoologie/Grand_Gaucho/Grand_Gaucho.xlsx
+++ b/biology/Zoologie/Grand_Gaucho/Grand_Gaucho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriornis lividus
-Le Grand Gaucho (Agriornis lividus), appelé également Gaucho de Kittlitz, est une espèce de passereau placée dans la famille des Tyrannidae[1].
+Le Grand Gaucho (Agriornis lividus), appelé également Gaucho de Kittlitz, est une espèce de passereau placée dans la famille des Tyrannidae.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 2 sous-espèces : 
 Agriornis lividus lividus : côtes et montagnes du Chili (de la région d'Atacama à la province de Valdivia) ;
-Agriornis lividus fortis Berlepsch, 1907[2] : du Sud du Chili (province d'Aisén) et du Sud de l'Argentine à la Terre de Feu[1].</t>
+Agriornis lividus fortis Berlepsch, 1907 : du Sud du Chili (province d'Aisén) et du Sud de l'Argentine à la Terre de Feu.</t>
         </is>
       </c>
     </row>
